--- a/public/tmp/billreport.xlsx
+++ b/public/tmp/billreport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>#</t>
   </si>
@@ -107,6 +107,66 @@
     <t>ประเภทงาน</t>
   </si>
   <si>
+    <t>2024-06-18 09:48:29</t>
+  </si>
+  <si>
+    <t>กพ767</t>
+  </si>
+  <si>
+    <t>AB0923B004953</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>J วางบิลเรียบร้อย</t>
+  </si>
+  <si>
+    <t>11002-948-2200092673</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
+    <t>BP81-2410-0066</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันห้าง</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>BP-6710-0021</t>
+  </si>
+  <si>
+    <t>TS281-2410-00083</t>
+  </si>
+  <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>ATT03</t>
+  </si>
+  <si>
+    <t>NO-EMCS</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
     <t>2024-08-21 04:29:55</t>
   </si>
   <si>
@@ -116,9 +176,6 @@
     <t>09035280</t>
   </si>
   <si>
-    <t>J วางบิลเรียบร้อย</t>
-  </si>
-  <si>
     <t>M7668869</t>
   </si>
   <si>
@@ -128,9 +185,6 @@
     <t>BP81-2409-0010</t>
   </si>
   <si>
-    <t>เบี้ยประกันห้าง</t>
-  </si>
-  <si>
     <t>ลูกค้า Walk in ด้วยตัวเอง</t>
   </si>
   <si>
@@ -152,18 +206,12 @@
     <t>TS281-2410-00052</t>
   </si>
   <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
     <t>MITSUBISHI</t>
   </si>
   <si>
     <t>Xpander</t>
   </si>
   <si>
-    <t>NO-EMCS</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -179,9 +227,6 @@
     <t>11002-948-230165905</t>
   </si>
   <si>
-    <t>ทิพยประกันภัย</t>
-  </si>
-  <si>
     <t>BP81-2409-0084</t>
   </si>
   <si>
@@ -203,15 +248,9 @@
     <t>TS281-2410-00006</t>
   </si>
   <si>
-    <t>BYD</t>
-  </si>
-  <si>
     <t>DOLPHIN</t>
   </si>
   <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
     <t>2024-08-27 02:52:31</t>
   </si>
   <si>
@@ -314,6 +353,39 @@
     <t>TS281-2410-00010</t>
   </si>
   <si>
+    <t>2024-09-05 03:48:33</t>
+  </si>
+  <si>
+    <t>กพ5764</t>
+  </si>
+  <si>
+    <t>F067259806</t>
+  </si>
+  <si>
+    <t>DC7066U00426</t>
+  </si>
+  <si>
+    <t>BP81-2410-0060</t>
+  </si>
+  <si>
+    <t>ลูกค้า Daily claim</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>TS281-2410-00087</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
     <t>2024-09-07 01:30:47</t>
   </si>
   <si>
@@ -338,9 +410,6 @@
     <t>TS281-2410-00005</t>
   </si>
   <si>
-    <t>Triton</t>
-  </si>
-  <si>
     <t>M-กลาง</t>
   </si>
   <si>
@@ -386,6 +455,39 @@
     <t>Mirage</t>
   </si>
   <si>
+    <t>2024-09-09 09:51:40</t>
+  </si>
+  <si>
+    <t>กน3246</t>
+  </si>
+  <si>
+    <t>724-16331-639/1</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
+  </si>
+  <si>
+    <t>BP81-2409-0047</t>
+  </si>
+  <si>
+    <t>ซ่อมเงินสด</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>AS181-2410-00204</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
     <t>2024-09-10 04:23:21</t>
   </si>
   <si>
@@ -620,9 +722,6 @@
     <t>TS281-2410-00003</t>
   </si>
   <si>
-    <t>Pajero</t>
-  </si>
-  <si>
     <t>2024-09-18 07:17:57</t>
   </si>
   <si>
@@ -638,12 +737,6 @@
     <t>BP81-2409-0086</t>
   </si>
   <si>
-    <t>ลูกค้า Daily claim</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
     <t>2024-09-30</t>
   </si>
   <si>
@@ -689,9 +782,6 @@
     <t>Hilux Revo</t>
   </si>
   <si>
-    <t>2024-10-12</t>
-  </si>
-  <si>
     <t>2024-09-20 06:59:52</t>
   </si>
   <si>
@@ -857,9 +947,6 @@
     <t>2024-10-20</t>
   </si>
   <si>
-    <t>2024-10-19</t>
-  </si>
-  <si>
     <t>BP-6710-0019</t>
   </si>
   <si>
@@ -923,9 +1010,6 @@
     <t>CLS250 CGI2.2</t>
   </si>
   <si>
-    <t>2024-10-21</t>
-  </si>
-  <si>
     <t>2024-09-25 06:21:38</t>
   </si>
   <si>
@@ -986,6 +1070,48 @@
     <t>TS281-2410-00075</t>
   </si>
   <si>
+    <t>2024-09-30 07:45:17</t>
+  </si>
+  <si>
+    <t>กพ2763</t>
+  </si>
+  <si>
+    <t>Z067324182</t>
+  </si>
+  <si>
+    <t>DC7067006016</t>
+  </si>
+  <si>
+    <t>BP81-2410-0065</t>
+  </si>
+  <si>
+    <t>TS281-2410-00090</t>
+  </si>
+  <si>
+    <t>Haval H6</t>
+  </si>
+  <si>
+    <t>2024-10-01 02:20:31</t>
+  </si>
+  <si>
+    <t>กพ-7923</t>
+  </si>
+  <si>
+    <t>67702/รจ/017051</t>
+  </si>
+  <si>
+    <t>67129/กธ/041800-10</t>
+  </si>
+  <si>
+    <t>BP81-2410-0033</t>
+  </si>
+  <si>
+    <t>BP-6710-0018</t>
+  </si>
+  <si>
+    <t>TS281-2410-00071</t>
+  </si>
+  <si>
     <t>2024-10-01 06:43:16</t>
   </si>
   <si>
@@ -1001,9 +1127,6 @@
     <t>BP81-2410-0018</t>
   </si>
   <si>
-    <t>BP-6710-0018</t>
-  </si>
-  <si>
     <t>TS281-2410-00077</t>
   </si>
   <si>
@@ -1013,9 +1136,6 @@
     <t>032414</t>
   </si>
   <si>
-    <t>เงินสด</t>
-  </si>
-  <si>
     <t>BP81-2410-0001</t>
   </si>
   <si>
@@ -1025,6 +1145,21 @@
     <t>AS181-2410-00011</t>
   </si>
   <si>
+    <t>2024-10-03 02:01:23</t>
+  </si>
+  <si>
+    <t>กพ7923</t>
+  </si>
+  <si>
+    <t>67701/รจ/017645</t>
+  </si>
+  <si>
+    <t>BP81-2410-0034</t>
+  </si>
+  <si>
+    <t>TS281-2410-00072</t>
+  </si>
+  <si>
     <t>2024-10-03 03:29:51</t>
   </si>
   <si>
@@ -1085,9 +1220,6 @@
     <t>TS281-2410-00009</t>
   </si>
   <si>
-    <t>Haval H6</t>
-  </si>
-  <si>
     <t>2024-10-04 03:30:13</t>
   </si>
   <si>
@@ -1106,6 +1238,24 @@
     <t>2024-10-05</t>
   </si>
   <si>
+    <t>2024-10-04 09:14:25</t>
+  </si>
+  <si>
+    <t>กพ7027</t>
+  </si>
+  <si>
+    <t>AB0924B004227</t>
+  </si>
+  <si>
+    <t>11002-948-240012105</t>
+  </si>
+  <si>
+    <t>BP81-2410-0041</t>
+  </si>
+  <si>
+    <t>TS281-2410-00084</t>
+  </si>
+  <si>
     <t>2024-10-07 04:59:05</t>
   </si>
   <si>
@@ -1172,6 +1322,36 @@
     <t>TS281-2410-00076</t>
   </si>
   <si>
+    <t>2024-10-08 09:48:49</t>
+  </si>
+  <si>
+    <t>5ขภ3418</t>
+  </si>
+  <si>
+    <t>F067334805</t>
+  </si>
+  <si>
+    <t>DC7067U00306</t>
+  </si>
+  <si>
+    <t>BP81-2410-0051</t>
+  </si>
+  <si>
+    <t>TS281-2410-00085</t>
+  </si>
+  <si>
+    <t>2024-10-09 01:16:05</t>
+  </si>
+  <si>
+    <t>Z067335445</t>
+  </si>
+  <si>
+    <t>BP81-2410-0052</t>
+  </si>
+  <si>
+    <t>TS281-2410-00086</t>
+  </si>
+  <si>
     <t>2024-10-10 02:51:13</t>
   </si>
   <si>
@@ -1190,6 +1370,66 @@
     <t>GOOD CAT</t>
   </si>
   <si>
+    <t>2024-10-11 04:28:08</t>
+  </si>
+  <si>
+    <t>VIN.002018</t>
+  </si>
+  <si>
+    <t>WPN002018</t>
+  </si>
+  <si>
+    <t>BP81-2410-0026</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายศูนย์บริการ</t>
+  </si>
+  <si>
+    <t>2024-10-11 04:58:21</t>
+  </si>
+  <si>
+    <t>ก2099</t>
+  </si>
+  <si>
+    <t>PH003269</t>
+  </si>
+  <si>
+    <t>เคลมใน</t>
+  </si>
+  <si>
+    <t>BP81-2410-0028</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายฝ่ายขาย</t>
+  </si>
+  <si>
+    <t>2024-10-11 05:09:57</t>
+  </si>
+  <si>
+    <t>VIN.005911</t>
+  </si>
+  <si>
+    <t>PN005911</t>
+  </si>
+  <si>
+    <t>BP81-2410-0029</t>
+  </si>
+  <si>
+    <t>AS181-2410-00196</t>
+  </si>
+  <si>
+    <t>2024-10-11 05:37:44</t>
+  </si>
+  <si>
+    <t>VIN.007359</t>
+  </si>
+  <si>
+    <t>RH007359</t>
+  </si>
+  <si>
+    <t>BP81-2410-0030</t>
+  </si>
+  <si>
     <t>2024-10-11 09:38:01</t>
   </si>
   <si>
@@ -1217,10 +1457,121 @@
     <t>BP81-2410-0059</t>
   </si>
   <si>
-    <t>2024-10-25</t>
-  </si>
-  <si>
     <t>TS281-2410-00064</t>
+  </si>
+  <si>
+    <t>2024-10-12 07:46:57</t>
+  </si>
+  <si>
+    <t>VIN.012358</t>
+  </si>
+  <si>
+    <t>012358</t>
+  </si>
+  <si>
+    <t>BP81-2410-0031</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:22:13</t>
+  </si>
+  <si>
+    <t>ก2065</t>
+  </si>
+  <si>
+    <t>001352</t>
+  </si>
+  <si>
+    <t>BP81-2410-0040</t>
+  </si>
+  <si>
+    <t>2024-10-15 08:46:15</t>
+  </si>
+  <si>
+    <t>CC300278937</t>
+  </si>
+  <si>
+    <t>BP81-2410-0043</t>
+  </si>
+  <si>
+    <t>AS181-2410-00242</t>
+  </si>
+  <si>
+    <t>2024-10-17 02:47:37</t>
+  </si>
+  <si>
+    <t>กษ2379</t>
+  </si>
+  <si>
+    <t>Z067345186</t>
+  </si>
+  <si>
+    <t>DC7067007139</t>
+  </si>
+  <si>
+    <t>BP81-2410-0078</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>TS281-2410-00088</t>
+  </si>
+  <si>
+    <t>2024-10-18 03:59:35</t>
+  </si>
+  <si>
+    <t>VIN009937</t>
+  </si>
+  <si>
+    <t>009937</t>
+  </si>
+  <si>
+    <t>BP81-2410-0055</t>
+  </si>
+  <si>
+    <t>2024-10-21 05:54:46</t>
+  </si>
+  <si>
+    <t>VIN004587</t>
+  </si>
+  <si>
+    <t>004587</t>
+  </si>
+  <si>
+    <t>BP81-2410-0068</t>
+  </si>
+  <si>
+    <t>2024-10-21 07:20:57</t>
+  </si>
+  <si>
+    <t>070295</t>
+  </si>
+  <si>
+    <t>BP81-2410-0064</t>
+  </si>
+  <si>
+    <t>AS181-2410-00364</t>
+  </si>
+  <si>
+    <t>2024-10-26 03:57:28</t>
+  </si>
+  <si>
+    <t>ก2589</t>
+  </si>
+  <si>
+    <t>BP81-2410-0088</t>
+  </si>
+  <si>
+    <t>เงินค่า Excess</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>AS181-2410-00420</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1950,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W49"/>
+      <selection activeCell="A2" sqref="A2:W70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1737,26 +2088,26 @@
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1780,13 +2131,13 @@
         <v>0.0</v>
       </c>
       <c r="U2" s="2">
-        <v>44767.0</v>
+        <v>3055.0</v>
       </c>
       <c r="V2" s="2">
-        <v>149752.59</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="2">
-        <v>194519.59</v>
+        <v>3055.0</v>
       </c>
       <c r="X2">
         <v>0.0</v>
@@ -1825,7 +2176,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>
@@ -1838,41 +2189,41 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
         <v>0.0</v>
       </c>
       <c r="U3" s="2">
-        <v>7215.0</v>
+        <v>44767.0</v>
       </c>
       <c r="V3" s="2">
-        <v>0.0</v>
+        <v>149752.59</v>
       </c>
       <c r="W3" s="2">
-        <v>7215.0</v>
+        <v>194519.59</v>
       </c>
       <c r="X3">
         <v>0.0</v>
@@ -1881,19 +2232,19 @@
         <v>45</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1901,33 +2252,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>71</v>
@@ -1939,47 +2290,47 @@
         <v>73</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
         <v>0.0</v>
       </c>
       <c r="U4" s="2">
-        <v>5770.0</v>
+        <v>7215.0</v>
       </c>
       <c r="V4" s="2">
-        <v>27367.42</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="2">
-        <v>33137.42</v>
+        <v>7215.0</v>
       </c>
       <c r="X4">
         <v>0.0</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1987,73 +2338,73 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <v>0.0</v>
       </c>
       <c r="U5" s="2">
-        <v>13770.0</v>
+        <v>5770.0</v>
       </c>
       <c r="V5" s="2">
-        <v>0.0</v>
+        <v>27367.42</v>
       </c>
       <c r="W5" s="2">
-        <v>13770.0</v>
+        <v>33137.42</v>
       </c>
       <c r="X5">
         <v>0.0</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="s">
         <v>91</v>
@@ -2062,10 +2413,10 @@
         <v>27</v>
       </c>
       <c r="AC5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -2073,85 +2424,85 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
         <v>0.0</v>
       </c>
       <c r="U6" s="2">
-        <v>6175.0</v>
+        <v>13770.0</v>
       </c>
       <c r="V6" s="2">
         <v>0.0</v>
       </c>
       <c r="W6" s="2">
-        <v>6175.0</v>
+        <v>13770.0</v>
       </c>
       <c r="X6">
         <v>0.0</v>
       </c>
       <c r="Y6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AB6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -2159,85 +2510,85 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <v>0.0</v>
       </c>
       <c r="U7" s="2">
-        <v>18360.0</v>
+        <v>6175.0</v>
       </c>
       <c r="V7" s="2">
-        <v>6985.3</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="2">
-        <v>25345.3</v>
+        <v>6175.0</v>
       </c>
       <c r="X7">
         <v>0.0</v>
       </c>
       <c r="Y7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
         <v>46</v>
       </c>
       <c r="AA7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -2245,87 +2596,85 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <v>25741.9</v>
+        <v>0.0</v>
       </c>
       <c r="U8" s="2">
-        <v>8409.0</v>
+        <v>9860.0</v>
       </c>
       <c r="V8" s="2">
-        <v>15648.85</v>
+        <v>11955.25</v>
       </c>
       <c r="W8" s="2">
-        <v>24057.85</v>
+        <v>21815.25</v>
       </c>
       <c r="X8">
         <v>0.0</v>
       </c>
       <c r="Y8" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA8" t="s">
         <v>122</v>
       </c>
       <c r="AB8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -2343,77 +2692,75 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="2">
         <v>0.0</v>
       </c>
       <c r="U9" s="2">
-        <v>7995.0</v>
+        <v>18360.0</v>
       </c>
       <c r="V9" s="2">
-        <v>0.0</v>
+        <v>6985.3</v>
       </c>
       <c r="W9" s="2">
-        <v>7995.0</v>
+        <v>25345.3</v>
       </c>
       <c r="X9">
         <v>0.0</v>
       </c>
       <c r="Y9" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
         <v>131</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2424,82 +2771,84 @@
         <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="T10" s="2">
-        <v>0.0</v>
+        <v>25741.9</v>
       </c>
       <c r="U10" s="2">
-        <v>10140.0</v>
+        <v>8409.0</v>
       </c>
       <c r="V10" s="2">
-        <v>0.0</v>
+        <v>15648.85</v>
       </c>
       <c r="W10" s="2">
-        <v>10140.0</v>
+        <v>24057.85</v>
       </c>
       <c r="X10">
         <v>0.0</v>
       </c>
       <c r="Y10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
       </c>
       <c r="AC10" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -2507,85 +2856,83 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="D11" s="2">
+        <v>24113316304</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="T11" s="2">
-        <v>0.0</v>
+        <v>126976.46</v>
       </c>
       <c r="U11" s="2">
-        <v>21190.0</v>
+        <v>24018.69</v>
       </c>
       <c r="V11" s="2">
-        <v>0.0</v>
+        <v>94650.9</v>
       </c>
       <c r="W11" s="2">
-        <v>21190.0</v>
+        <v>118669.59</v>
       </c>
       <c r="X11">
         <v>0.0</v>
       </c>
       <c r="Y11" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
       </c>
       <c r="AC11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2593,64 +2940,66 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="T12" s="2">
         <v>0.0</v>
       </c>
       <c r="U12" s="2">
-        <v>15110.0</v>
+        <v>7995.0</v>
       </c>
       <c r="V12" s="2">
-        <v>29118.45</v>
+        <v>0.0</v>
       </c>
       <c r="W12" s="2">
-        <v>44228.45</v>
+        <v>7995.0</v>
       </c>
       <c r="X12">
         <v>0.0</v>
@@ -2662,16 +3011,16 @@
         <v>46</v>
       </c>
       <c r="AA12" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="AB12" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC12" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="AD12" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -2679,64 +3028,64 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <v>0.0</v>
       </c>
       <c r="U13" s="2">
-        <v>4335.0</v>
+        <v>10140.0</v>
       </c>
       <c r="V13" s="2">
         <v>0.0</v>
       </c>
       <c r="W13" s="2">
-        <v>4335.0</v>
+        <v>10140.0</v>
       </c>
       <c r="X13">
         <v>0.0</v>
@@ -2748,16 +3097,16 @@
         <v>46</v>
       </c>
       <c r="AA13" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="AB13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC13" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="AD13" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -2765,64 +3114,64 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2">
         <v>0.0</v>
       </c>
       <c r="U14" s="2">
-        <v>6800.0</v>
+        <v>21190.0</v>
       </c>
       <c r="V14" s="2">
-        <v>29979.5</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="2">
-        <v>36779.5</v>
+        <v>21190.0</v>
       </c>
       <c r="X14">
         <v>0.0</v>
@@ -2834,16 +3183,16 @@
         <v>46</v>
       </c>
       <c r="AA14" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="AB14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC14" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="AD14" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -2851,64 +3200,64 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2">
         <v>0.0</v>
       </c>
       <c r="U15" s="2">
-        <v>4334.16</v>
+        <v>15110.0</v>
       </c>
       <c r="V15" s="2">
-        <v>4230.45</v>
+        <v>29118.45</v>
       </c>
       <c r="W15" s="2">
-        <v>8564.61</v>
+        <v>44228.45</v>
       </c>
       <c r="X15">
         <v>0.0</v>
@@ -2917,19 +3266,19 @@
         <v>45</v>
       </c>
       <c r="Z15" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA15" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="AB15" t="s">
         <v>27</v>
       </c>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2937,64 +3286,64 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
         <v>0.0</v>
       </c>
       <c r="U16" s="2">
-        <v>4720.0</v>
+        <v>4335.0</v>
       </c>
       <c r="V16" s="2">
-        <v>5941.5</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="2">
-        <v>10661.5</v>
+        <v>4335.0</v>
       </c>
       <c r="X16">
         <v>0.0</v>
@@ -3003,19 +3352,19 @@
         <v>45</v>
       </c>
       <c r="Z16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AB16" t="s">
         <v>27</v>
       </c>
       <c r="AC16" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AD16" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -3023,85 +3372,85 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
         <v>0.0</v>
       </c>
       <c r="U17" s="2">
-        <v>15590.0</v>
+        <v>6800.0</v>
       </c>
       <c r="V17" s="2">
-        <v>9041.45</v>
+        <v>29979.5</v>
       </c>
       <c r="W17" s="2">
-        <v>24631.45</v>
+        <v>36779.5</v>
       </c>
       <c r="X17">
         <v>0.0</v>
       </c>
       <c r="Y17" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AB17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AD17" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -3109,64 +3458,64 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>188</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
         <v>0.0</v>
       </c>
       <c r="U18" s="2">
-        <v>4284.0</v>
+        <v>4334.16</v>
       </c>
       <c r="V18" s="2">
-        <v>10814.2</v>
+        <v>4230.45</v>
       </c>
       <c r="W18" s="2">
-        <v>15098.2</v>
+        <v>8564.61</v>
       </c>
       <c r="X18">
         <v>0.0</v>
@@ -3175,10 +3524,10 @@
         <v>45</v>
       </c>
       <c r="Z18" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA18" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="AB18" t="s">
         <v>27</v>
@@ -3187,7 +3536,7 @@
         <v>188</v>
       </c>
       <c r="AD18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -3195,87 +3544,85 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="2">
-        <v>21607.7</v>
+        <v>0.0</v>
       </c>
       <c r="U19" s="2">
-        <v>12342.0</v>
+        <v>4720.0</v>
       </c>
       <c r="V19" s="2">
-        <v>8435.64</v>
+        <v>5941.5</v>
       </c>
       <c r="W19" s="2">
-        <v>20777.64</v>
+        <v>10661.5</v>
       </c>
       <c r="X19">
         <v>0.0</v>
       </c>
       <c r="Y19" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA19" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="AB19" t="s">
         <v>27</v>
       </c>
       <c r="AC19" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AD19" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -3283,85 +3630,85 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2">
         <v>0.0</v>
       </c>
       <c r="U20" s="2">
-        <v>35841.0</v>
+        <v>15590.0</v>
       </c>
       <c r="V20" s="2">
-        <v>88243.69</v>
+        <v>9041.45</v>
       </c>
       <c r="W20" s="2">
-        <v>124084.69</v>
+        <v>24631.45</v>
       </c>
       <c r="X20">
         <v>0.0</v>
       </c>
       <c r="Y20" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z20" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA20" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AB20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC20" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AD20" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -3369,64 +3716,64 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
         <v>0.0</v>
       </c>
       <c r="U21" s="2">
-        <v>4510.0</v>
+        <v>4284.0</v>
       </c>
       <c r="V21" s="2">
-        <v>0.0</v>
+        <v>10814.2</v>
       </c>
       <c r="W21" s="2">
-        <v>4510.0</v>
+        <v>15098.2</v>
       </c>
       <c r="X21">
         <v>0.0</v>
@@ -3435,19 +3782,19 @@
         <v>45</v>
       </c>
       <c r="Z21" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="AA21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AB21" t="s">
         <v>27</v>
       </c>
       <c r="AC21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD21" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -3455,85 +3802,87 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S22" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="T22" s="2">
-        <v>0.0</v>
+        <v>21607.7</v>
       </c>
       <c r="U22" s="2">
-        <v>510.0</v>
+        <v>12342.0</v>
       </c>
       <c r="V22" s="2">
-        <v>0.0</v>
+        <v>8435.64</v>
       </c>
       <c r="W22" s="2">
-        <v>510.0</v>
+        <v>20777.64</v>
       </c>
       <c r="X22">
         <v>0.0</v>
       </c>
       <c r="Y22" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z22" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="AA22" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AB22" t="s">
         <v>27</v>
       </c>
       <c r="AC22" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD22" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -3541,85 +3890,85 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2">
-        <v>6657.54</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="2">
-        <v>510.0</v>
+        <v>35841.0</v>
       </c>
       <c r="V23" s="2">
-        <v>5712.0</v>
+        <v>88243.69</v>
       </c>
       <c r="W23" s="2">
-        <v>6222.0</v>
+        <v>124084.69</v>
       </c>
       <c r="X23">
         <v>0.0</v>
       </c>
       <c r="Y23" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA23" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="AB23" t="s">
         <v>27</v>
       </c>
       <c r="AC23" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AD23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3627,64 +3976,64 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2">
         <v>0.0</v>
       </c>
       <c r="U24" s="2">
-        <v>510.0</v>
+        <v>4510.0</v>
       </c>
       <c r="V24" s="2">
-        <v>6600.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24" s="2">
-        <v>7110.0</v>
+        <v>4510.0</v>
       </c>
       <c r="X24">
         <v>0.0</v>
@@ -3693,19 +4042,19 @@
         <v>45</v>
       </c>
       <c r="Z24" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="AA24" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="AB24" t="s">
         <v>27</v>
       </c>
       <c r="AC24" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="AD24" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -3713,64 +4062,64 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2">
-        <v>46955.08</v>
+        <v>0.0</v>
       </c>
       <c r="U25" s="2">
-        <v>18870.0</v>
+        <v>510.0</v>
       </c>
       <c r="V25" s="2">
-        <v>25013.25</v>
+        <v>0.0</v>
       </c>
       <c r="W25" s="2">
-        <v>43883.25</v>
+        <v>510.0</v>
       </c>
       <c r="X25">
         <v>0.0</v>
@@ -3779,19 +4128,19 @@
         <v>45</v>
       </c>
       <c r="Z25" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="AA25" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="AB25" t="s">
         <v>27</v>
       </c>
       <c r="AC25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD25" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3799,85 +4148,85 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2">
-        <v>0.0</v>
+        <v>6657.54</v>
       </c>
       <c r="U26" s="2">
-        <v>14365.0</v>
+        <v>510.0</v>
       </c>
       <c r="V26" s="2">
-        <v>38856.0</v>
+        <v>5712.0</v>
       </c>
       <c r="W26" s="2">
-        <v>53221.0</v>
+        <v>6222.0</v>
       </c>
       <c r="X26">
         <v>0.0</v>
       </c>
       <c r="Y26" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z26" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA26" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="AB26" t="s">
         <v>27</v>
       </c>
       <c r="AC26" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AD26" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3885,64 +4234,64 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2">
         <v>0.0</v>
       </c>
       <c r="U27" s="2">
-        <v>13877.5</v>
+        <v>510.0</v>
       </c>
       <c r="V27" s="2">
-        <v>0.0</v>
+        <v>6600.0</v>
       </c>
       <c r="W27" s="2">
-        <v>13877.5</v>
+        <v>7110.0</v>
       </c>
       <c r="X27">
         <v>0.0</v>
@@ -3951,19 +4300,19 @@
         <v>45</v>
       </c>
       <c r="Z27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA27" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="AB27" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC27" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3971,83 +4320,85 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M28" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2">
-        <v>0.0</v>
+        <v>46955.08</v>
       </c>
       <c r="U28" s="2">
-        <v>7862.5</v>
+        <v>18870.0</v>
       </c>
       <c r="V28" s="2">
-        <v>3661.8</v>
+        <v>25013.25</v>
       </c>
       <c r="W28" s="2">
-        <v>11524.3</v>
+        <v>43883.25</v>
       </c>
       <c r="X28">
         <v>0.0</v>
       </c>
       <c r="Y28" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA28" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="AB28" t="s">
         <v>27</v>
       </c>
       <c r="AC28" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="AD28" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -4055,64 +4406,64 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="Q29" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2">
         <v>0.0</v>
       </c>
       <c r="U29" s="2">
-        <v>3000.0</v>
+        <v>14365.0</v>
       </c>
       <c r="V29" s="2">
-        <v>0.0</v>
+        <v>38856.0</v>
       </c>
       <c r="W29" s="2">
-        <v>3000.0</v>
+        <v>53221.0</v>
       </c>
       <c r="X29">
         <v>0.0</v>
@@ -4121,19 +4472,19 @@
         <v>45</v>
       </c>
       <c r="Z29" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA29" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="AB29" t="s">
         <v>27</v>
       </c>
       <c r="AC29" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="AD29" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -4141,64 +4492,64 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2">
         <v>0.0</v>
       </c>
       <c r="U30" s="2">
-        <v>8967.5</v>
+        <v>13877.5</v>
       </c>
       <c r="V30" s="2">
-        <v>13979.95</v>
+        <v>0.0</v>
       </c>
       <c r="W30" s="2">
-        <v>22947.45</v>
+        <v>13877.5</v>
       </c>
       <c r="X30">
         <v>0.0</v>
@@ -4210,16 +4561,16 @@
         <v>46</v>
       </c>
       <c r="AA30" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AB30" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC30" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="AD30" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -4227,85 +4578,83 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="R31" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2">
         <v>0.0</v>
       </c>
       <c r="U31" s="2">
-        <v>4037.5</v>
+        <v>7862.5</v>
       </c>
       <c r="V31" s="2">
-        <v>3204.5</v>
+        <v>3661.8</v>
       </c>
       <c r="W31" s="2">
-        <v>7242.0</v>
+        <v>11524.3</v>
       </c>
       <c r="X31">
         <v>0.0</v>
       </c>
       <c r="Y31" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z31" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA31" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AB31" t="s">
         <v>27</v>
       </c>
       <c r="AC31" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="AD31" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -4313,64 +4662,64 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2">
         <v>0.0</v>
       </c>
       <c r="U32" s="2">
-        <v>2336.45</v>
+        <v>3000.0</v>
       </c>
       <c r="V32" s="2">
         <v>0.0</v>
       </c>
       <c r="W32" s="2">
-        <v>2336.45</v>
+        <v>3000.0</v>
       </c>
       <c r="X32">
         <v>0.0</v>
@@ -4378,17 +4727,20 @@
       <c r="Y32" t="s">
         <v>45</v>
       </c>
+      <c r="Z32" t="s">
+        <v>63</v>
+      </c>
       <c r="AA32" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="AB32" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC32" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="AD32" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -4396,85 +4748,85 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>306</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2">
         <v>0.0</v>
       </c>
       <c r="U33" s="2">
-        <v>5015.0</v>
+        <v>8967.5</v>
       </c>
       <c r="V33" s="2">
-        <v>2444.6</v>
+        <v>13979.95</v>
       </c>
       <c r="W33" s="2">
-        <v>7459.6</v>
+        <v>22947.45</v>
       </c>
       <c r="X33">
         <v>0.0</v>
       </c>
       <c r="Y33" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA33" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AB33" t="s">
         <v>27</v>
       </c>
       <c r="AC33" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="AD33" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -4482,64 +4834,64 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2">
         <v>0.0</v>
       </c>
       <c r="U34" s="2">
-        <v>6460.0</v>
+        <v>4037.5</v>
       </c>
       <c r="V34" s="2">
-        <v>7467.25</v>
+        <v>3204.5</v>
       </c>
       <c r="W34" s="2">
-        <v>13927.25</v>
+        <v>7242.0</v>
       </c>
       <c r="X34">
         <v>0.0</v>
@@ -4548,19 +4900,19 @@
         <v>45</v>
       </c>
       <c r="Z34" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA34" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="AB34" t="s">
         <v>27</v>
       </c>
       <c r="AC34" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AD34" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -4568,83 +4920,82 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2">
         <v>0.0</v>
       </c>
       <c r="U35" s="2">
-        <v>13770.0</v>
+        <v>2336.45</v>
       </c>
       <c r="V35" s="2">
-        <v>2839.0</v>
+        <v>0.0</v>
       </c>
       <c r="W35" s="2">
-        <v>16609.0</v>
+        <v>2336.45</v>
       </c>
       <c r="X35">
         <v>0.0</v>
       </c>
       <c r="Y35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="AB35" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC35" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="AD35" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -4652,85 +5003,85 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2">
         <v>0.0</v>
       </c>
       <c r="U36" s="2">
-        <v>34459.0</v>
+        <v>5015.0</v>
       </c>
       <c r="V36" s="2">
-        <v>43103.5</v>
+        <v>2444.6</v>
       </c>
       <c r="W36" s="2">
-        <v>77562.5</v>
+        <v>7459.6</v>
       </c>
       <c r="X36">
         <v>0.0</v>
       </c>
       <c r="Y36" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z36" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA36" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="AB36" t="s">
         <v>27</v>
       </c>
       <c r="AC36" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="AD36" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4738,81 +5089,85 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L37" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M37" s="2" t="s">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q37" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="R37" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2">
-        <v>4525.57</v>
+        <v>0.0</v>
       </c>
       <c r="U37" s="2">
-        <v>0.0</v>
+        <v>6460.0</v>
       </c>
       <c r="V37" s="2">
-        <v>4229.5</v>
+        <v>7467.25</v>
       </c>
       <c r="W37" s="2">
-        <v>4229.5</v>
+        <v>13927.25</v>
       </c>
       <c r="X37">
         <v>0.0</v>
       </c>
       <c r="Y37" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA37" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="AB37" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC37" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4820,85 +5175,83 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2">
         <v>0.0</v>
       </c>
       <c r="U38" s="2">
-        <v>15725.0</v>
+        <v>13770.0</v>
       </c>
       <c r="V38" s="2">
-        <v>41184.7</v>
+        <v>2839.0</v>
       </c>
       <c r="W38" s="2">
-        <v>56909.7</v>
+        <v>16609.0</v>
       </c>
       <c r="X38">
         <v>0.0</v>
       </c>
       <c r="Y38" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z38" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA38" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="AB38" t="s">
         <v>27</v>
       </c>
       <c r="AC38" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4906,81 +5259,85 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M39" s="2" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q39" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="R39" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2">
-        <v>16560.0</v>
+        <v>0.0</v>
       </c>
       <c r="U39" s="2">
-        <v>15476.64</v>
+        <v>4590.0</v>
       </c>
       <c r="V39" s="2">
-        <v>0.0</v>
+        <v>29593.26</v>
       </c>
       <c r="W39" s="2">
-        <v>15476.64</v>
+        <v>34183.26</v>
       </c>
       <c r="X39">
         <v>0.0</v>
       </c>
       <c r="Y39" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="AB39" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC39" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="AD39" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4988,85 +5345,85 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="S40" s="2"/>
       <c r="T40" s="2">
-        <v>5000.0</v>
+        <v>0.0</v>
       </c>
       <c r="U40" s="2">
-        <v>4672.9</v>
+        <v>7990.0</v>
       </c>
       <c r="V40" s="2">
-        <v>0.0</v>
+        <v>8703.66</v>
       </c>
       <c r="W40" s="2">
-        <v>4672.9</v>
+        <v>16693.66</v>
       </c>
       <c r="X40">
         <v>0.0</v>
       </c>
       <c r="Y40" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z40" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AA40" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
       </c>
       <c r="AC40" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="AD40" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -5074,79 +5431,85 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L41" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M41" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="S41" s="2"/>
       <c r="T41" s="2">
-        <v>9900.0</v>
+        <v>0.0</v>
       </c>
       <c r="U41" s="2">
-        <v>9900.0</v>
+        <v>34459.0</v>
       </c>
       <c r="V41" s="2">
-        <v>0.0</v>
+        <v>43103.5</v>
       </c>
       <c r="W41" s="2">
-        <v>9900.0</v>
+        <v>77562.5</v>
       </c>
       <c r="X41">
         <v>0.0</v>
       </c>
       <c r="Y41" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z41" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA41" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="AB41" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC41" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="AD41" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -5154,85 +5517,81 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="S42" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="T42" s="2">
-        <v>0.0</v>
+        <v>4525.57</v>
       </c>
       <c r="U42" s="2">
-        <v>1020.0</v>
+        <v>0.0</v>
       </c>
       <c r="V42" s="2">
-        <v>3094.0</v>
+        <v>4229.5</v>
       </c>
       <c r="W42" s="2">
-        <v>4114.0</v>
+        <v>4229.5</v>
       </c>
       <c r="X42">
         <v>0.0</v>
       </c>
       <c r="Y42" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="Z42" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA42" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="AB42" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC42" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="AD42" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -5240,83 +5599,85 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M43" s="2" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2">
         <v>0.0</v>
       </c>
       <c r="U43" s="2">
-        <v>8704.0</v>
+        <v>2142.0</v>
       </c>
       <c r="V43" s="2">
-        <v>4115.7</v>
+        <v>2613.02</v>
       </c>
       <c r="W43" s="2">
-        <v>12819.7</v>
+        <v>4755.02</v>
       </c>
       <c r="X43">
         <v>0.0</v>
       </c>
       <c r="Y43" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z43" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AA43" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="AB43" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC43" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AD43" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -5324,83 +5685,85 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M44" s="2" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>121</v>
+        <v>386</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2">
         <v>0.0</v>
       </c>
       <c r="U44" s="2">
-        <v>3000.0</v>
+        <v>15725.0</v>
       </c>
       <c r="V44" s="2">
-        <v>2834.75</v>
+        <v>41184.7</v>
       </c>
       <c r="W44" s="2">
-        <v>5834.75</v>
+        <v>56909.7</v>
       </c>
       <c r="X44">
         <v>0.0</v>
       </c>
       <c r="Y44" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA44" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="AB44" t="s">
         <v>27</v>
       </c>
       <c r="AC44" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AD44" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -5408,85 +5771,81 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>378</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="S45" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="T45" s="2">
-        <v>0.0</v>
+        <v>16560.0</v>
       </c>
       <c r="U45" s="2">
-        <v>400.0</v>
+        <v>15476.64</v>
       </c>
       <c r="V45" s="2">
-        <v>1922.7</v>
+        <v>0.0</v>
       </c>
       <c r="W45" s="2">
-        <v>2322.7</v>
+        <v>15476.64</v>
       </c>
       <c r="X45">
         <v>0.0</v>
       </c>
       <c r="Y45" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z45" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AA45" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="AB45" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AC45" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="AD45" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5494,50 +5853,52 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M46" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="T46" s="2">
         <v>5000.0</v>
@@ -5558,19 +5919,19 @@
         <v>45</v>
       </c>
       <c r="Z46" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AA46" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AC46" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -5578,64 +5939,58 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>402</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>54</v>
+        <v>404</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="S47" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="T47" s="2">
-        <v>0.0</v>
+        <v>9900.0</v>
       </c>
       <c r="U47" s="2">
-        <v>5330.0</v>
+        <v>9900.0</v>
       </c>
       <c r="V47" s="2">
         <v>0.0</v>
       </c>
       <c r="W47" s="2">
-        <v>5330.0</v>
+        <v>9900.0</v>
       </c>
       <c r="X47">
         <v>0.0</v>
@@ -5644,19 +5999,19 @@
         <v>45</v>
       </c>
       <c r="Z47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA47" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
       </c>
       <c r="AC47" t="s">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="AD47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -5664,111 +6019,1859 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2">
         <v>0.0</v>
       </c>
       <c r="U48" s="2">
-        <v>186.0</v>
+        <v>7930.0</v>
       </c>
       <c r="V48" s="2">
-        <v>2550.0</v>
+        <v>0.0</v>
       </c>
       <c r="W48" s="2">
-        <v>2736.0</v>
+        <v>7930.0</v>
       </c>
       <c r="X48">
         <v>0.0</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s">
         <v>46</v>
       </c>
       <c r="AA48" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
       </c>
       <c r="AC48" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AD48" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1020.0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>3094.0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>4114.0</v>
+      </c>
+      <c r="X49">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>8704.0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>4115.7</v>
+      </c>
+      <c r="W50" s="2">
+        <v>12819.7</v>
+      </c>
+      <c r="X50">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2834.75</v>
+      </c>
+      <c r="W51" s="2">
+        <v>5834.75</v>
+      </c>
+      <c r="X51">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>400.0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1922.7</v>
+      </c>
+      <c r="W52" s="2">
+        <v>2322.7</v>
+      </c>
+      <c r="X52">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>11611.0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>2929.95</v>
+      </c>
+      <c r="W53" s="2">
+        <v>14540.95</v>
+      </c>
+      <c r="X53">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>6494.0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>6494.0</v>
+      </c>
+      <c r="X54">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T55" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>4672.9</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>4672.9</v>
+      </c>
+      <c r="X55">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T56" s="2">
+        <v>2508.0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>2508.0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>2508.0</v>
+      </c>
+      <c r="X56">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T57" s="2">
+        <v>7632.0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>7632.0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>7632.0</v>
+      </c>
+      <c r="X57">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1440.0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1345.79</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>1345.79</v>
+      </c>
+      <c r="X58">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T59" s="2">
+        <v>840.0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>840.0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>840.0</v>
+      </c>
+      <c r="X59">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>5330.0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>5330.0</v>
+      </c>
+      <c r="X60">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>2550.0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>2736.0</v>
+      </c>
+      <c r="X61">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T62" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="X62">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T63" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="X63">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T64" s="2">
+        <v>934.58</v>
+      </c>
+      <c r="U64" s="2">
+        <v>934.58</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>934.58</v>
+      </c>
+      <c r="X64">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>4455.0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>4806.75</v>
+      </c>
+      <c r="W65" s="2">
+        <v>9261.75</v>
+      </c>
+      <c r="X65">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T66" s="2">
+        <v>12900.0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>12900.0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>12900.0</v>
+      </c>
+      <c r="X66">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T67" s="2">
+        <v>15900.0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>15900.0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>15900.0</v>
+      </c>
+      <c r="X67">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T68" s="2">
+        <v>1016.5</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>950.0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>950.0</v>
+      </c>
+      <c r="X68">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D69" s="2">
+        <v>901206</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T69" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X69">
+        <v>1000.0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
